--- a/imageCreationExcel/back/0901-1/0901-1_10.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_10.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.757668478153949</v>
+        <v>0.469768464769182</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.4758020405486995</v>
+        <v>0.870090329896737</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.31089527936356</v>
+        <v>28.81272701716998</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_9_gamma0.76_sharpness0.48_equalization10.0.jpg</t>
+          <t>1_I_sharpness0.47_contrast0.87_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -533,34 +533,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.095458517352965</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8478071721765699</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.9454779363873931</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8254470844468177</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H3" t="n">
-        <v>27.74980519537888</v>
+        <v>0.5204915513764909</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_S_gamma0.95_sharpness0.83_equalization28.0.jpg</t>
+          <t>2_S_contrast1.1_sharpness0.85_gamma0.52.jpg</t>
         </is>
       </c>
     </row>
@@ -570,24 +570,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.018363199659488</v>
+        <v>1.014301504335139</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25.39653275585017</v>
+        <v>28.78110712936222</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_1_gamma1.0_brightness25.0.jpg</t>
+          <t>3_T_contrast1.0_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -614,41 +614,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11.55458477192526</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9704243547419926</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.06968725261006969</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>29.85935565101906</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H5" t="n">
+        <v>0.6317634593398891</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_sharpness0.07_brightness30.0.jpg</t>
+          <t>4_T_brightness12.0_gamma0.97_sharpness0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -658,16 +656,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25.24538368518348</v>
+        <v>0.9412011385440606</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -675,7 +673,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6460014113837814</v>
+        <v>0.4616962741160395</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -692,7 +690,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_J_brightness25.0_sharpness0.65.jpg</t>
+          <t>5_0_contrast0.94_sharpness0.46.jpg</t>
         </is>
       </c>
     </row>
@@ -702,24 +700,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>14.40881570868086</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.9344702399578144</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F7" t="n">
-        <v>15.87521963012663</v>
+        <v>0.6201095014964345</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -736,7 +734,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_E_gamma0.93_equalization16.0.jpg</t>
+          <t>6_I_brightness14.0_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -751,36 +749,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.5228196635508</v>
+        <v>0.9915982719014192</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.913270668846519</v>
+        <v>0.5715385728655518</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>11.22140720743877</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_0_brightness13.0_contrast0.91.jpg</t>
+          <t>7_0_contrast0.99_gamma0.57_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -790,39 +786,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.017098269245979</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0.9663905461753759</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F9" t="n">
-        <v>0.2030666884063875</v>
+        <v>0.5261643183373411</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>18.07098624696518</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_B_gamma0.97_sharpness0.2_equalization18.0.jpg</t>
+          <t>8_T_contrast1.0_gamma0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -832,24 +830,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.006951080063098</v>
+        <v>0.1950604989867353</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13.75138917694582</v>
+        <v>0.8168050802869733</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -866,7 +864,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_8_contrast1.0_equalization14.0.jpg</t>
+          <t>9_J_sharpness0.2_contrast0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -876,7 +874,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -885,15 +883,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8959745629614235</v>
+        <v>0.9909107131987358</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.10594012062712</v>
+        <v>14.42766980531387</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -906,11 +904,11 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_J_gamma0.9_brightness5.1.jpg</t>
+          <t>10_8_gamma0.99_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -920,39 +918,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.026246415201831</v>
+        <v>5.536185377457498</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.198838494636516</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0.9764132134169141</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H12" t="n">
-        <v>0.4488710988596488</v>
+        <v>0.723329052636992</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_P_contrast1.0_gamma0.98_sharpness0.45.jpg</t>
+          <t>11_B_brightness5.5_contrast1.2_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -962,24 +960,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8405076597061274</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>20.94180603599044</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F13" t="n">
-        <v>1.18319206007777</v>
+        <v>6.527691499109577</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -992,11 +990,11 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_Q_brightness21.0_contrast1.2.jpg</t>
+          <t>12_C_sharpness0.84_brightness6.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1015,32 +1013,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9712784525527284</v>
+        <v>0.8739355328979992</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30.2248545222073</v>
+        <v>0.3116510625710236</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9.030890676975019</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_J_contrast0.97_equalization30.0.jpg</t>
+          <t>13_J_contrast0.87_sharpness0.31_brightness9.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1050,39 +1046,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.192315638885022</v>
+        <v>0.9413431047243063</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9610249753717401</v>
+        <v>11.27693289759975</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1038771392337144</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_contrast1.2_gamma0.96_sharpness0.1.jpg</t>
+          <t>14_J_gamma0.94_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1092,39 +1090,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21.1001416164095</v>
+        <v>1.176610950741322</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.4433815768285949</v>
+        <v>0.6946990748478602</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0.7534186201539925</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_7_brightness21.0_sharpness0.44_gamma0.75.jpg</t>
+          <t>15_T_contrast1.2_gamma0.69.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.7281405449583993</v>
+        <v>0.7391948912939437</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9820047415781202</v>
+        <v>0.8299520994422693</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1159,14 +1159,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>11.59393876118333</v>
+        <v>18.78098796401977</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_S_gamma0.73_contrast0.98_equalization12.0.jpg</t>
+          <t>16_2_gamma0.74_contrast0.83_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1176,24 +1176,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.739674825575407</v>
+        <v>1.121941805721476</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8878005984587435</v>
+        <v>0.5493965852338175</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.114021122697362</v>
+        <v>21.35387585352735</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_B_sharpness0.74_contrast0.89_equalization5.1.jpg</t>
+          <t>17_Q_contrast1.1_gamma0.55_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4602235544902281</v>
+        <v>0.5330880817509542</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1235,22 +1235,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.342834266799201</v>
+        <v>19.02919888265767</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5546596049434437</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_1_sharpness0.46_brightness6.3_gamma0.55.jpg</t>
+          <t>18_7_sharpness0.53_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1260,24 +1262,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11.38422659748241</v>
+        <v>0.5742799637803203</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5456151501963269</v>
+        <v>0.8483139279775057</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1290,11 +1292,11 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_brightness11.0_sharpness0.55.jpg</t>
+          <t>19_8_sharpness0.57_contrast0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1306,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1313,7 +1315,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.484707732653561</v>
+        <v>25.28910586107606</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1321,7 +1323,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.070153062176599</v>
+        <v>1.087423574751601</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1334,11 +1336,11 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_Q_brightness8.5_contrast1.1.jpg</t>
+          <t>20_T_brightness25.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1348,24 +1350,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>13.14897551789215</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0.5105416408950012</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F22" t="n">
-        <v>0.155637619187397</v>
+        <v>0.9264000547838466</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1373,14 +1375,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.058964960520917</v>
+        <v>0.8834014715330408</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_1_gamma0.51_sharpness0.16_contrast1.1.jpg</t>
+          <t>21_E_brightness13.0_gamma0.93_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1392,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1399,30 +1401,32 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17.36608951493471</v>
+        <v>3.77258747570995</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.06122655889552</v>
+        <v>0.8139949338753265</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>0.6278556684695734</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_brightness17.0_contrast1.1_sharpness0.63.jpg</t>
+          <t>22_J_brightness3.8_gamma0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -1432,41 +1436,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.133479455171349</v>
+        <v>0.8321912709702611</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8.560504819597192</v>
+        <v>21.36281151954429</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8268409033879489</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_C_contrast1.1_equalization8.6.jpg</t>
+          <t>23_T_sharpness0.83_brightness21.0_contrast0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1476,24 +1478,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>26.80080472363449</v>
+        <v>0.8865864764130681</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.034459833353321</v>
+        <v>0.9620613860175227</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1510,7 +1512,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_brightness27.0_gamma1.0.jpg</t>
+          <t>24_9_sharpness0.89_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -1520,24 +1522,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8401935528460076</v>
+        <v>0.7616377940411786</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7.099525135709781</v>
+        <v>8.819576193677298</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1550,11 +1552,11 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_gamma0.84_brightness7.1.jpg</t>
+          <t>25_2_sharpness0.76_equalization8.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1566,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1573,15 +1575,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.758882343669586</v>
+        <v>0.8940070178903918</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.16414451748657</v>
+        <v>0.6805666466957264</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1598,7 +1600,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_7_gamma0.76_contrast1.2.jpg</t>
+          <t>26_1_gamma0.89_sharpness0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -1608,39 +1610,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.855781891311425</v>
+        <v>0.498083692787745</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.008445415527887</v>
+        <v>1.000019983538788</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>0.3605114737929394</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_J_brightness4.9_gamma1.0_sharpness0.36.jpg</t>
+          <t>27_P_sharpness0.5_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1654,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1659,15 +1663,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.069866045922005</v>
+        <v>20.79120773953579</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5789224376141116</v>
+        <v>0.9651133302395491</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1680,11 +1684,11 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_brightness4.1_gamma0.58.jpg</t>
+          <t>28_E_brightness21.0_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1694,41 +1698,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>18.96011574555429</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1585325292593426</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0.6685967808772033</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4.839078559665353</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H30" t="n">
+        <v>0.7311558022716731</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_gamma0.67_brightness4.8.jpg</t>
+          <t>29_9_brightness19.0_sharpness0.16_gamma0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -1738,41 +1740,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8408496653644639</v>
+        <v>0.236090522242818</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.7826288416942098</v>
+        <v>0.9330797173312584</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>30.12213716607817</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_contrast0.84_gamma0.78.jpg</t>
+          <t>30_0_sharpness0.24_contrast0.93_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1782,16 +1782,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8932392259076443</v>
+        <v>0.01726986518752682</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>16.92182974563802</v>
+        <v>31.09812267443582</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_7_gamma0.89_equalization17.0.jpg</t>
+          <t>31_1_sharpness0.017_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1826,24 +1826,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9534189329454383</v>
+        <v>0.1184035319907841</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.7553233491238027</v>
+        <v>0.895088249739437</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1851,14 +1851,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8.033647978561831</v>
+        <v>16.13756937522262</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_7_contrast0.95_gamma0.76_equalization8.0.jpg</t>
+          <t>32_J_sharpness0.12_contrast0.9_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1868,41 +1868,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5764618160066072</v>
+        <v>0.4800777135133248</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>22.02744426158114</v>
+        <v>0.8883754071302375</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8.293228067954223</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_gamma0.58_brightness22.0.jpg</t>
+          <t>33_0_sharpness0.48_contrast0.89_equalization8.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1910,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1921,7 +1919,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.124994799892496</v>
+        <v>0.9794327330074211</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1929,22 +1927,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7.343316102218164</v>
+        <v>18.43747680541404</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.1514534198150599</v>
+        <v>0.6228787865091809</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_2_contrast1.1_brightness7.3_sharpness0.15.jpg</t>
+          <t>34_C_contrast0.98_brightness18.0_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1954,24 +1952,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.752477383700985</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0.5497141286680086</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F36" t="n">
-        <v>0.8701458610072805</v>
+        <v>0.7014956213897556</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1979,14 +1977,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>15.72816828384607</v>
+        <v>8.975402343907636</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_J_sharpness0.55_gamma0.87_equalization16.0.jpg</t>
+          <t>35_E_gamma0.75_sharpness0.7_equalization9.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1996,24 +1994,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.03669016540133</v>
+        <v>0.6583798856028589</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.188216242803705</v>
+        <v>29.52968075777614</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2030,7 +2028,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_brightness10.0_contrast1.2.jpg</t>
+          <t>36_I_gamma0.66_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,41 +2038,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.860610834031029</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.097755094477705</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>11.3567351185074</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.5285974521568334</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H38" t="n">
+        <v>20.03904597927558</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_brightness11.0_sharpness0.53.jpg</t>
+          <t>37_7_contrast0.86_gamma1.1_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2084,24 +2080,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9649179010516941</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>0.3327966571514328</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F39" t="n">
-        <v>6.295816862255426</v>
+        <v>0.3777020725603325</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2118,7 +2114,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_S_sharpness0.33_equalization6.3.jpg</t>
+          <t>38_E_gamma0.96_sharpness0.38.jpg</t>
         </is>
       </c>
     </row>
@@ -2128,16 +2124,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9352036362383329</v>
+        <v>0.8775683949607844</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2145,7 +2141,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17.08255312053503</v>
+        <v>29.82189185668679</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2162,7 +2158,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_3_contrast0.94_equalization17.0.jpg</t>
+          <t>39_P_gamma0.88_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2172,24 +2168,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.007740718603347</v>
+        <v>11.10395592692973</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>7.640088933298016</v>
+        <v>0.9718756592941679</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2206,7 +2202,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_Q_contrast1.0_equalization7.6.jpg</t>
+          <t>40_S_brightness11.0_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -2216,41 +2212,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9065881894755232</v>
+        <v>1.146726472903091</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.082472914700491</v>
+        <v>1.098197705295357</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>12.68275984938612</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_sharpness0.91_contrast1.1.jpg</t>
+          <t>41_P_contrast1.1_gamma1.1_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2254,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2269,7 +2263,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.06288113789995686</v>
+        <v>0.01471632769607167</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2277,7 +2271,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5061394535355859</v>
+        <v>1.072231359427659</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2285,14 +2279,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>14.45786263764857</v>
+        <v>29.48957148634182</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_1_sharpness0.063_gamma0.51_equalization14.0.jpg</t>
+          <t>42_C_sharpness0.015_gamma1.1_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2296,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2311,30 +2305,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>14.89434065742948</v>
+        <v>13.90957532109667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.178187636266334</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0.1482849003803876</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H44" t="n">
-        <v>0.8599897202001922</v>
+        <v>0.3260811510472241</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_E_brightness15.0_sharpness0.15_contrast0.86.jpg</t>
+          <t>43_2_brightness14.0_contrast1.2_sharpness0.33.jpg</t>
         </is>
       </c>
     </row>
@@ -2344,24 +2338,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9806105998330981</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0.8877970801583809</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F45" t="n">
-        <v>0.8528318797423761</v>
+        <v>0.8152655635489922</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2378,7 +2372,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_7_sharpness0.89_contrast0.85.jpg</t>
+          <t>44_Q_contrast0.98_sharpness0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -2388,41 +2382,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6647981507139598</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>0.589625569044853</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="n">
+        <v>0.1861769242391403</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>18.50381423491012</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H46" t="n">
+        <v>29.80163028887626</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_3_sharpness0.59_equalization19.0.jpg</t>
+          <t>45_0_gamma0.66_sharpness0.19_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2424,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2441,30 +2433,32 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8970455064627448</v>
+        <v>0.95067352421044</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.3386418912289693</v>
+        <v>17.31087121443727</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5.577971438213574</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_Q_contrast0.9_sharpness0.34_equalization5.6.jpg</t>
+          <t>46_S_contrast0.95_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2474,39 +2468,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15.92136036182833</v>
+        <v>0.6789735969164596</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9834547399021354</v>
+        <v>0.3648464892855333</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.1252430800714689</v>
+        <v>9.377820260546233</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_9_brightness16.0_contrast0.98_sharpness0.13.jpg</t>
+          <t>47_I_gamma0.68_sharpness0.36_equalization9.4.jpg</t>
         </is>
       </c>
     </row>
@@ -2516,24 +2510,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6544376824613932</v>
+        <v>1.090060540270131</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.067627818256317</v>
+        <v>8.289281356392397</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2550,7 +2544,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_C_sharpness0.65_contrast1.1.jpg</t>
+          <t>48_2_contrast1.1_equalization8.3.jpg</t>
         </is>
       </c>
     </row>
